--- a/Баг-репорт.xlsx
+++ b/Баг-репорт.xlsx
@@ -70,106 +70,106 @@
     <t>Открыта главная страница сайта https://www.eastmining.ru/</t>
   </si>
   <si>
-    <t>1. Выбрать "Eg" 
+    <t>Отображение слайда на английском языке</t>
+  </si>
+  <si>
+    <t>Отображение слайда на русском языке</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>E-2</t>
+  </si>
+  <si>
+    <t>E-3</t>
+  </si>
+  <si>
+    <t>E-4</t>
+  </si>
+  <si>
+    <t>E-5</t>
+  </si>
+  <si>
+    <t>E-6</t>
+  </si>
+  <si>
+    <t>Главная страница - Кнопка "Карьера" исчезает при выборе англияского языка</t>
+  </si>
+  <si>
+    <t>Файл "E-1"</t>
+  </si>
+  <si>
+    <t>Файл "E-2"</t>
+  </si>
+  <si>
+    <t>Файл "E-3"</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Отображается кнопка "Career"</t>
+  </si>
+  <si>
+    <t>Отсутсвует кнопка "Career"</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Главная страница - Кнопка "Access for buyers" отсутствует при выбранном русском языке</t>
+  </si>
+  <si>
+    <t>Наблюдать кнопку "Доступ для покупателя" с иконкой "ключ"</t>
+  </si>
+  <si>
+    <t>Отсутсвует кнопка "Доступ для покупателя"</t>
+  </si>
+  <si>
+    <t>Загружается файл "https://auction.eastmining.ru/media/agreements/%D0%A1%D0%BE%D0%B3%D0%BB%D0%B0%D1%81%D0%B8%D0%B5_%D0%BD%D0%B0_%D0%BE%D0%B1%D1%80%D0%B0%D0%B1%D0%BE%D1%82%D0%BA%D1%83_%D0%B4%D0%B0%D0%BD%D0%BD%D1%8B%D1%85.pdf"</t>
+  </si>
+  <si>
+    <t>Отображается страница с ошибкой "404 Not Found"</t>
+  </si>
+  <si>
+    <t>Страница регистарации покупателя - При нажатии на ссылку "Политикой конфиденциальности" не загружается файл</t>
+  </si>
+  <si>
+    <t>Открыта страница регистрации покупателя https://auction.eastmining.ru/ru/registration/supplier</t>
+  </si>
+  <si>
+    <t>1. Нажать на "Политикой конфиденциальности"</t>
+  </si>
+  <si>
+    <t>Файл "E-4"</t>
+  </si>
+  <si>
+    <t>Файл "E-5"</t>
+  </si>
+  <si>
+    <t>Страница регистарации поставщика - При нажатии на ссылку "Политикой конфиденциальности" не загружается файл</t>
+  </si>
+  <si>
+    <t>Открыта страница регистрации поставщика https://auction.eastmining.ru/ru/registration/supplier</t>
+  </si>
+  <si>
+    <t>Файл "E-6"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Выбрать "Eng" </t>
+  </si>
+  <si>
+    <t>1. Выбрать "Eng" 
 2. Выбрать слайд (class="swiper-wrapper") номер 6</t>
   </si>
   <si>
-    <t>Отображение слайда на английском языке</t>
-  </si>
-  <si>
-    <t>Отображение слайда на русском языке</t>
-  </si>
-  <si>
-    <t>Trivial</t>
-  </si>
-  <si>
-    <t>E-1</t>
-  </si>
-  <si>
-    <t>E-2</t>
-  </si>
-  <si>
-    <t>E-3</t>
-  </si>
-  <si>
-    <t>E-4</t>
-  </si>
-  <si>
-    <t>E-5</t>
-  </si>
-  <si>
-    <t>E-6</t>
-  </si>
-  <si>
-    <t>Главная страница - Кнопка "Карьера" исчезает при выборе англияского языка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Выбрать "Eg" </t>
-  </si>
-  <si>
-    <t>Файл "E-1"</t>
-  </si>
-  <si>
-    <t>Файл "E-2"</t>
-  </si>
-  <si>
-    <t>Файл "E-3"</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Отображается кнопка "Career"</t>
-  </si>
-  <si>
-    <t>Отсутсвует кнопка "Career"</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Главная страница - Кнопка "Access for buyers" отсутствует при выбранном русском языке</t>
-  </si>
-  <si>
-    <t>1. Выбрать "Eg" 
+    <t>1. Выбрать "Eng" 
 2. Наблюдать кнопку "Access for buyers" с иконкой "ключ"
-3. Выбрать "Ru"</t>
-  </si>
-  <si>
-    <t>Наблюдать кнопку "Доступ для покупателя" с иконкой "ключ"</t>
-  </si>
-  <si>
-    <t>Отсутсвует кнопка "Доступ для покупателя"</t>
-  </si>
-  <si>
-    <t>Загружается файл "https://auction.eastmining.ru/media/agreements/%D0%A1%D0%BE%D0%B3%D0%BB%D0%B0%D1%81%D0%B8%D0%B5_%D0%BD%D0%B0_%D0%BE%D0%B1%D1%80%D0%B0%D0%B1%D0%BE%D1%82%D0%BA%D1%83_%D0%B4%D0%B0%D0%BD%D0%BD%D1%8B%D1%85.pdf"</t>
-  </si>
-  <si>
-    <t>Отображается страница с ошибкой "404 Not Found"</t>
-  </si>
-  <si>
-    <t>Страница регистарации покупателя - При нажатии на ссылку "Политикой конфиденциальности" не загружается файл</t>
-  </si>
-  <si>
-    <t>Открыта страница регистрации покупателя https://auction.eastmining.ru/ru/registration/supplier</t>
-  </si>
-  <si>
-    <t>1. Нажать на "Политикой конфиденциальности"</t>
-  </si>
-  <si>
-    <t>Файл "E-4"</t>
-  </si>
-  <si>
-    <t>Файл "E-5"</t>
-  </si>
-  <si>
-    <t>Страница регистарации поставщика - При нажатии на ссылку "Политикой конфиденциальности" не загружается файл</t>
-  </si>
-  <si>
-    <t>Открыта страница регистрации поставщика https://auction.eastmining.ru/ru/registration/supplier</t>
-  </si>
-  <si>
-    <t>Файл "E-6"</t>
+3. Выбрать "Рус"</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:9" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -645,12 +645,12 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -662,27 +662,27 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -691,27 +691,27 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -720,77 +720,77 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
